--- a/biology/Zoologie/Ctenus/Ctenus.xlsx
+++ b/biology/Zoologie/Ctenus/Ctenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenus est un genre d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenus est un genre d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique subsaharienne et en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique subsaharienne et en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.5, 11/09/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Spider Catalog                                (version 23.5, 11/09/2022) :
 Ctenus abditus Arts, 1912
 Ctenus adustus (Keyserling, 1877)
 Ctenus agroecoides (Thorell, 1881)
@@ -730,10 +746,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Walckenaer en 1805.
-Microctenus Keyserling, 1877[3], préoccupé par Microctenus Fitzinger, 1843, remplacé par Oligoctenus par Simon en 1887[4] a été placé en synonymie par Brescovit et Simó en 2007[5].
+Microctenus Keyserling, 1877, préoccupé par Microctenus Fitzinger, 1843, remplacé par Oligoctenus par Simon en 1887 a été placé en synonymie par Brescovit et Simó en 2007.
 </t>
         </is>
       </c>
@@ -762,7 +780,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walckenaer, 1805 : Tableau des aranéides ou caractères essentiels des tribus, genres, familles et races que renferme le genre Aranea de Linné, avec la désignation des espèces comprises dans chacune de ces divisions. Paris, p. 1-88.</t>
         </is>
